--- a/Tabella riassuntiva training.xlsx
+++ b/Tabella riassuntiva training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo Bravin\Desktop\NN_image_augmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0550D-C703-4C5D-B606-6884BA62D2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB0A9E-18F3-455D-BAD0-2A7613A5D875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4056D6A-9760-4CCC-9367-AEA513EFACC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>No augmentation</t>
   </si>
@@ -91,20 +91,94 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>DatasColor 35</t>
-  </si>
-  <si>
-    <t>DatasColor 36</t>
-  </si>
-  <si>
-    <t>Bark dataset</t>
+    <r>
+      <t xml:space="preserve">Genera a cascata per ogni immagine del dataset immagini con: flip rispetto a x, flip rispetto a y, rotazioni random tra 0 e 180, aggiunta di rumore gaussiano, ritagli random di </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±40 px, hue jitter, saturation jitter, brightness jitter, contrast jitter.</t>
+    </r>
+  </si>
+  <si>
+    <t>Genera a caso per ogni immagine una deformazione elastica randomica applicando: filtro gaussiano o filtro average o filtro disk</t>
+  </si>
+  <si>
+    <t>Bark dataset ridotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genera una nuova immagine con un numero di colori ridotto tra 216 e 1728 </t>
+  </si>
+  <si>
+    <t>Viene applicata ad ogni immagine due volte la DCT2 e viene poi effettuata un post processing con equalizzazione di istogramma e riduzione di nebbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si applica FFT2 all'immagine, si mettono a zero tutti I valori compresi in un range randomico (tra -1000 e +1000) e si rieffettua la FFT2 (non inversa). Cioò porta ad una variazione naturale della colorazione dell'immagine e ad una rotazione di 180 gradi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si effettua una deconvoluzione cieca utilizzando un filtro di rumore gaussiano. Si ottiene una figura distorta con bordi ripetuti e rumore </t>
+  </si>
+  <si>
+    <t>DatasColor 65</t>
+  </si>
+  <si>
+    <t>DatasColor 37</t>
+  </si>
+  <si>
+    <t>Utilizza locallapfilt (applicazione di filtri laplaciani) per ottenere tre immagini con: aumento del contrasto con edge awareness, smooting delle features (una specie di blur) con edge awareness, forte aumento di highlights e ombre con edge awareness</t>
+  </si>
+  <si>
+    <t>Combina due immagini attraverso la trasformata fft2. Vengono combinate le fasi delle due immagini prendendo da una quelle positive e dall'altra quelle negative. Si effettua poi la ifft2 tenendo modulo dell'immagine originale e la nuova fase combinata</t>
+  </si>
+  <si>
+    <t>Riquadri dell'immagine vengono copiati e sovrapposti a porzioni dell'immagine stessa in maniera randomica</t>
+  </si>
+  <si>
+    <t>Applica a cascata: Superpixel, deformation, Pixel shuffle e content fill</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Pixel shuffle = rimescolamento di ogni pixel in un area 3x3 intorno a se</t>
+  </si>
+  <si>
+    <t>Applica a cascata: DCT, Deformation, FFT, FFT combine, Laplacian, SVD,  Superpixel, color reduction, hilbert transform</t>
+  </si>
+  <si>
+    <t>SVD = elimina valori piccoli dalla matrice diagonale producendo artefatti simil compressione in tratti verticali e orizzontali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superpixel = segmeI23:I29ntazione dell'immagine e attribuzione della media del colore per ogni sezione </t>
+  </si>
+  <si>
+    <t>Hilbert transform= applica riga per riga dell'immagine la trasformata di hilbert per poi prendere solamente la componente della fase dell'immagine complessa generata (colori distorti simili al negativo)</t>
+  </si>
+  <si>
+    <t>Applica a cascata: DCT e deformation</t>
+  </si>
+  <si>
+    <t>Applica a cascata: DCT , superpixel, Hilbert transform e Hampel</t>
+  </si>
+  <si>
+    <t>Hampel: Applica riga per riga dell'immagine la funzione di hampel per l'eliminazione di outliers da segnali</t>
+  </si>
+  <si>
+    <t>Applica a cascata: Hampel, Hilbert transform, DCT e Laplacian</t>
+  </si>
+  <si>
+    <t>Applica a cascata: classic, deformation, FFT, Hilbert transform e hampel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +191,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,10 +219,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -457,39 +543,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7876CB4A-7B83-4C2C-A824-E050292184A7}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.109375" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -499,14 +590,14 @@
       <c r="D4" s="1">
         <v>91.666700000000006</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>86.289299999999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>62.107300000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -516,11 +607,17 @@
       <c r="D5" s="1">
         <v>93.666700000000006</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="F5" s="1">
         <v>71.317099999999996</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -530,14 +627,17 @@
       <c r="D6" s="1">
         <v>91.333299999999994</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>85.415300000000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>66.643900000000002</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -547,14 +647,18 @@
       <c r="D7" s="1">
         <v>90.333299999999994</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>85.322900000000004</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>65.443399999999997</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -564,8 +668,14 @@
       <c r="D8" s="1">
         <v>89.333299999999994</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -575,8 +685,14 @@
       <c r="D9" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -586,11 +702,16 @@
       <c r="D10" s="1">
         <v>91.666700000000006</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>65.386799999999994</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -600,11 +721,16 @@
       <c r="D11" s="1">
         <v>91.666700000000006</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>67.870099999999994</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -614,8 +740,14 @@
       <c r="D12" s="1">
         <v>90.333299999999994</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -625,14 +757,17 @@
       <c r="D13" s="1">
         <v>91.333299999999994</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>84.996600000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>67.439899999999994</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -642,8 +777,13 @@
       <c r="D14" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -653,8 +793,15 @@
       <c r="D15" s="2">
         <v>92.333299999999994</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="2">
+        <v>88.04</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -664,8 +811,13 @@
       <c r="D16" s="1">
         <v>91.666700000000006</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -675,8 +827,13 @@
       <c r="D17" s="1">
         <v>90.333299999999994</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -686,8 +843,13 @@
       <c r="D18" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -697,11 +859,60 @@
       <c r="D19" s="1">
         <v>94.333299999999994</v>
       </c>
+      <c r="E19" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I26" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="$C$4"/>
@@ -711,28 +922,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D19">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="9" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="formula" val="$D$4"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
@@ -740,39 +935,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D19">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E4:E19">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="num" val="$D$4"/>
+        <cfvo type="num" val="$E$4"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F19">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <color theme="7" tint="0.39997558519241921"/>
-        <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="9" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="$F$4"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
